--- a/Burndown e Backlog/BACKLOG.xlsx
+++ b/Burndown e Backlog/BACKLOG.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aline.crispereira\Desktop\novo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1B0ACCC-42BD-46CF-8E45-57E6DA1730D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B85E2EC2-F570-43C5-8A4B-CE347B21A418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="615" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="615" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog " sheetId="4" r:id="rId1"/>
+    <sheet name="Backlog - %Status prioridade" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="63">
   <si>
     <t>Preparação ambiente para hospedagem local do Site</t>
   </si>
@@ -195,6 +196,21 @@
   <si>
     <t>Catálogo de Cursos - Criação de site</t>
   </si>
+  <si>
+    <t>SPRINT 0</t>
+  </si>
+  <si>
+    <t>SPRINT 1</t>
+  </si>
+  <si>
+    <t>SPRINT 2</t>
+  </si>
+  <si>
+    <t>SPRINT 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -203,7 +219,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -312,6 +328,11 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="13">
@@ -448,11 +469,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -497,27 +519,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -552,10 +553,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -568,6 +597,1001 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Evolução</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> por Sprint por Prioridades</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Planejado</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Backlog - %Status prioridade'!$L$8,'Backlog - %Status prioridade'!$L$23,'Backlog - %Status prioridade'!$L$41,'Backlog - %Status prioridade'!$L$53)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SPRINT 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SPRINT 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SPRINT 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SPRINT 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Backlog - %Status prioridade'!$J$8,'Backlog - %Status prioridade'!$J$23,'Backlog - %Status prioridade'!$J$41,'Backlog - %Status prioridade'!$J$53)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41025641025641024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76068376068376065</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B33D-4DA0-A235-2EA07E537ABF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Executado</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Backlog - %Status prioridade'!$L$8,'Backlog - %Status prioridade'!$L$23,'Backlog - %Status prioridade'!$L$41,'Backlog - %Status prioridade'!$L$53)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SPRINT 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SPRINT 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SPRINT 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SPRINT 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Backlog - %Status prioridade'!$K$8,'Backlog - %Status prioridade'!$K$23,'Backlog - %Status prioridade'!$K$41,'Backlog - %Status prioridade'!$K$53)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41025641025641024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41025641025641024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41025641025641024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B33D-4DA0-A235-2EA07E537ABF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="434730096"/>
+        <c:axId val="504811520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="434730096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504811520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="504811520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434730096"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>637989</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489F5CE0-95F6-4966-9B56-F38618FF6E48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -773,8 +1797,8 @@
   </sheetPr>
   <dimension ref="A1:O995"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -785,18 +1809,18 @@
     <col min="4" max="4" width="25.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.1796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="2.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" style="30" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="14.453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" ht="20" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.4">
       <c r="B3" s="27" t="s">
@@ -811,89 +1835,89 @@
       <c r="E3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="40" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="31">
+      <c r="B4" s="45">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="28" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="31"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="41" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="31"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="31"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="31"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B9" s="15"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="39"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="37"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -902,159 +1926,159 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="32">
+      <c r="B10" s="46">
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="32"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="32"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="32"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="32"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="32"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
-      <c r="B16" s="32"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="32"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
-      <c r="B18" s="32"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="32"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="32"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
-      <c r="B21" s="32"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="37"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1066,27 +2090,27 @@
     </row>
     <row r="22" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
-      <c r="B22" s="32"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
-      <c r="B23" s="32"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="31" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1094,9 +2118,9 @@
       <c r="A24" s="16"/>
       <c r="B24" s="15"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="39"/>
-      <c r="G24" s="37"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="32"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1105,226 +2129,226 @@
     </row>
     <row r="25" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
-      <c r="B25" s="33">
+      <c r="B25" s="47">
         <v>2</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="33" t="s">
         <v>11</v>
       </c>
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
-      <c r="B26" s="33"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
-      <c r="B27" s="33"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
-      <c r="B28" s="33"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
-      <c r="B29" s="33"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
-      <c r="B30" s="33"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
-      <c r="B31" s="33"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="D31" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
-      <c r="B32" s="33"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
-      <c r="B33" s="33"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
-      <c r="B34" s="33"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
-      <c r="B35" s="33"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
-      <c r="B36" s="33"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
-      <c r="B37" s="33"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
-      <c r="B38" s="33"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="42" t="s">
+      <c r="D38" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
-      <c r="B39" s="33"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
-      <c r="B40" s="33"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="D40" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="33" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
-      <c r="B41" s="33"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="43" t="s">
+      <c r="D41" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="33" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="3"/>
@@ -1333,247 +2357,247 @@
       <c r="A42" s="20"/>
       <c r="B42" s="15"/>
       <c r="C42" s="26"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="39"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="32"/>
       <c r="F42" s="21"/>
-      <c r="G42" s="37"/>
+      <c r="G42" s="30"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
-      <c r="B43" s="34">
+      <c r="B43" s="48">
         <v>3</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="44" t="s">
+      <c r="D43" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
-      <c r="B44" s="34"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
-      <c r="B45" s="34"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="44" t="s">
+      <c r="D45" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="34"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="44" t="s">
+      <c r="D46" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="40" t="s">
+      <c r="E46" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="34"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="44" t="s">
+      <c r="D47" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
-      <c r="B48" s="34"/>
+      <c r="B48" s="48"/>
       <c r="C48" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="44" t="s">
+      <c r="D48" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
-      <c r="B49" s="34"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="42" t="s">
+      <c r="D49" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
-      <c r="B50" s="34"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="42" t="s">
+      <c r="D50" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="8"/>
-      <c r="B51" s="34"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="42" t="s">
+      <c r="D51" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="8"/>
-      <c r="B52" s="34"/>
+      <c r="B52" s="48"/>
       <c r="C52" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="42" t="s">
+      <c r="D52" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
-      <c r="B53" s="34"/>
+      <c r="B53" s="48"/>
       <c r="C53" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E53" s="40" t="s">
+      <c r="E53" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
     </row>
     <row r="55" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="8"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
     </row>
     <row r="56" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="8"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
     </row>
     <row r="57" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="8"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
     </row>
     <row r="58" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="8"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
     </row>
     <row r="59" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="8"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
     </row>
     <row r="60" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="8"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
     </row>
     <row r="61" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="8"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
     </row>
     <row r="62" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="8"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
     </row>
     <row r="63" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="8"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
     </row>
     <row r="64" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="8"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
     </row>
     <row r="65" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="8"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
     </row>
     <row r="66" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="8"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
     </row>
     <row r="67" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="8"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
     </row>
     <row r="68" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="8"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
     </row>
     <row r="69" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="8"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
     </row>
     <row r="70" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="8"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
     </row>
     <row r="71" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="8"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
     </row>
     <row r="72" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="8"/>
@@ -4358,4 +5382,4127 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96004D1-4E27-4916-8115-7C2B808FC4B7}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:V995"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="85.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.1796875" style="49" customWidth="1"/>
+    <col min="7" max="7" width="1.1796875" style="49" customWidth="1"/>
+    <col min="8" max="8" width="1.7265625" style="49" customWidth="1"/>
+    <col min="9" max="9" width="2.08984375" style="49" customWidth="1"/>
+    <col min="10" max="10" width="2" style="49" customWidth="1"/>
+    <col min="11" max="11" width="2.54296875" style="49" customWidth="1"/>
+    <col min="12" max="12" width="1.7265625" style="49" customWidth="1"/>
+    <col min="13" max="13" width="1.7265625" style="53" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.453125" style="1"/>
+    <col min="16" max="16" width="7.08984375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="14.453125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:21" ht="20" x14ac:dyDescent="0.4">
+      <c r="B2" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.4">
+      <c r="B3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="27" t="str">
+        <f>"STATUS = " &amp; TEXT(L4,"0%")</f>
+        <v>STATUS = 41%</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="45">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="49">
+        <f>IF(D4=$O$4,$P$4,IF(D4=$O$5,$P$5,IF(D4=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G4" s="49">
+        <f>IF(E4=$N$4,F4,0)</f>
+        <v>3</v>
+      </c>
+      <c r="J4" s="49">
+        <v>0</v>
+      </c>
+      <c r="K4" s="49">
+        <v>0</v>
+      </c>
+      <c r="L4" s="50">
+        <f>G54/F54</f>
+        <v>0.41025641025641024</v>
+      </c>
+      <c r="M4" s="54"/>
+      <c r="N4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="37">
+        <v>3</v>
+      </c>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="45"/>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="49">
+        <f>IF(D5=$O$4,$P$4,IF(D5=$O$5,$P$5,IF(D5=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G5" s="49">
+        <f>IF(E5=$N$4,F5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="N5" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="45"/>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="49">
+        <f>IF(D6=$O$4,$P$4,IF(D6=$O$5,$P$5,IF(D6=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G6" s="49">
+        <f>IF(E6=$N$4,F6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="45"/>
+      <c r="C7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="49">
+        <f>IF(D7=$O$4,$P$4,IF(D7=$O$5,$P$5,IF(D7=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G7" s="49">
+        <f>IF(E7=$N$4,F7,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="45"/>
+      <c r="C8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="49">
+        <f>IF(D8=$O$4,$P$4,IF(D8=$O$5,$P$5,IF(D8=$O$6,$P$6,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="49">
+        <f>IF(E8=$N$4,F8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="49">
+        <f>SUM(F4:F8)</f>
+        <v>13</v>
+      </c>
+      <c r="I8" s="49">
+        <f>SUM(G4:G8)</f>
+        <v>13</v>
+      </c>
+      <c r="J8" s="51">
+        <f>H8/$F$54</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K8" s="51">
+        <f>I8/$F$54</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L8" s="49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="46">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="49">
+        <f>IF(D10=$O$4,$P$4,IF(D10=$O$5,$P$5,IF(D10=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G10" s="49">
+        <f>IF(E10=$N$4,F10,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="46"/>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="49">
+        <f>IF(D11=$O$4,$P$4,IF(D11=$O$5,$P$5,IF(D11=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G11" s="49">
+        <f>IF(E11=$N$4,F11,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="46"/>
+      <c r="C12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="49">
+        <f>IF(D12=$O$4,$P$4,IF(D12=$O$5,$P$5,IF(D12=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G12" s="49">
+        <f>IF(E12=$N$4,F12,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="49">
+        <f>IF(D13=$O$4,$P$4,IF(D13=$O$5,$P$5,IF(D13=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="49">
+        <f>IF(E13=$N$4,F13,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="49">
+        <f>IF(D14=$O$4,$P$4,IF(D14=$O$5,$P$5,IF(D14=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G14" s="49">
+        <f>IF(E14=$N$4,F14,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="49">
+        <f>IF(D15=$O$4,$P$4,IF(D15=$O$5,$P$5,IF(D15=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G15" s="49">
+        <f>IF(E15=$N$4,F15,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="49">
+        <f>IF(D16=$O$4,$P$4,IF(D16=$O$5,$P$5,IF(D16=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G16" s="49">
+        <f>IF(E16=$N$4,F16,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="49">
+        <f>IF(D17=$O$4,$P$4,IF(D17=$O$5,$P$5,IF(D17=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G17" s="49">
+        <f>IF(E17=$N$4,F17,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="49">
+        <f>IF(D18=$O$4,$P$4,IF(D18=$O$5,$P$5,IF(D18=$O$6,$P$6,0)))</f>
+        <v>2</v>
+      </c>
+      <c r="G18" s="49">
+        <f>IF(E18=$N$4,F18,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="49">
+        <f>IF(D19=$O$4,$P$4,IF(D19=$O$5,$P$5,IF(D19=$O$6,$P$6,0)))</f>
+        <v>2</v>
+      </c>
+      <c r="G19" s="49">
+        <f>IF(E19=$N$4,F19,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="46"/>
+      <c r="C20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="49">
+        <f>IF(D20=$O$4,$P$4,IF(D20=$O$5,$P$5,IF(D20=$O$6,$P$6,0)))</f>
+        <v>2</v>
+      </c>
+      <c r="G20" s="49">
+        <f>IF(E20=$N$4,F20,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="49">
+        <f>IF(D21=$O$4,$P$4,IF(D21=$O$5,$P$5,IF(D21=$O$6,$P$6,0)))</f>
+        <v>2</v>
+      </c>
+      <c r="G21" s="49">
+        <f>IF(E21=$N$4,F21,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="49">
+        <f>IF(D22=$O$4,$P$4,IF(D22=$O$5,$P$5,IF(D22=$O$6,$P$6,0)))</f>
+        <v>2</v>
+      </c>
+      <c r="G22" s="49">
+        <f>IF(E22=$N$4,F22,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="49">
+        <f>IF(D23=$O$4,$P$4,IF(D23=$O$5,$P$5,IF(D23=$O$6,$P$6,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="49">
+        <f>IF(E23=$N$4,F23,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="49">
+        <f>SUM(F10:F23)</f>
+        <v>35</v>
+      </c>
+      <c r="I23" s="49">
+        <f>SUM(G10:G23)</f>
+        <v>35</v>
+      </c>
+      <c r="J23" s="51">
+        <f>H23/$F$54+J8</f>
+        <v>0.41025641025641024</v>
+      </c>
+      <c r="K23" s="51">
+        <f>I23/$F$54+K8</f>
+        <v>0.41025641025641024</v>
+      </c>
+      <c r="L23" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="16"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+      <c r="B25" s="47">
+        <v>2</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="49">
+        <f>IF(D25=$O$4,$P$4,IF(D25=$O$5,$P$5,IF(D25=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G25" s="49">
+        <f>IF(E25=$N$4,F25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="49">
+        <f>IF(D26=$O$4,$P$4,IF(D26=$O$5,$P$5,IF(D26=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G26" s="49">
+        <f>IF(E26=$N$4,F26,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="49">
+        <f>IF(D27=$O$4,$P$4,IF(D27=$O$5,$P$5,IF(D27=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G27" s="49">
+        <f>IF(E27=$N$4,F27,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="49">
+        <f>IF(D28=$O$4,$P$4,IF(D28=$O$5,$P$5,IF(D28=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G28" s="49">
+        <f>IF(E28=$N$4,F28,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="49">
+        <f>IF(D29=$O$4,$P$4,IF(D29=$O$5,$P$5,IF(D29=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G29" s="49">
+        <f>IF(E29=$N$4,F29,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="49">
+        <f>IF(D30=$O$4,$P$4,IF(D30=$O$5,$P$5,IF(D30=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G30" s="49">
+        <f>IF(E30=$N$4,F30,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="7"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="49">
+        <f>IF(D31=$O$4,$P$4,IF(D31=$O$5,$P$5,IF(D31=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G31" s="49">
+        <f>IF(E31=$N$4,F31,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="8"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="49">
+        <f>IF(D32=$O$4,$P$4,IF(D32=$O$5,$P$5,IF(D32=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G32" s="49">
+        <f>IF(E32=$N$4,F32,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="8"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="49">
+        <f>IF(D33=$O$4,$P$4,IF(D33=$O$5,$P$5,IF(D33=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G33" s="49">
+        <f>IF(E33=$N$4,F33,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="8"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="49">
+        <f>IF(D34=$O$4,$P$4,IF(D34=$O$5,$P$5,IF(D34=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G34" s="49">
+        <f>IF(E34=$N$4,F34,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="49">
+        <f>IF(D35=$O$4,$P$4,IF(D35=$O$5,$P$5,IF(D35=$O$6,$P$6,0)))</f>
+        <v>2</v>
+      </c>
+      <c r="G35" s="49">
+        <f>IF(E35=$N$4,F35,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="8"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="49">
+        <f>IF(D36=$O$4,$P$4,IF(D36=$O$5,$P$5,IF(D36=$O$6,$P$6,0)))</f>
+        <v>2</v>
+      </c>
+      <c r="G36" s="49">
+        <f>IF(E36=$N$4,F36,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="8"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="49">
+        <f>IF(D37=$O$4,$P$4,IF(D37=$O$5,$P$5,IF(D37=$O$6,$P$6,0)))</f>
+        <v>2</v>
+      </c>
+      <c r="G37" s="49">
+        <f>IF(E37=$N$4,F37,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="8"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="49">
+        <f>IF(D38=$O$4,$P$4,IF(D38=$O$5,$P$5,IF(D38=$O$6,$P$6,0)))</f>
+        <v>2</v>
+      </c>
+      <c r="G38" s="49">
+        <f>IF(E38=$N$4,F38,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="8"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="49">
+        <f>IF(D39=$O$4,$P$4,IF(D39=$O$5,$P$5,IF(D39=$O$6,$P$6,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="G39" s="49">
+        <f>IF(E39=$N$4,F39,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="8"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="49">
+        <f>IF(D40=$O$4,$P$4,IF(D40=$O$5,$P$5,IF(D40=$O$6,$P$6,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="G40" s="49">
+        <f>IF(E40=$N$4,F40,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="8"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="49">
+        <f>IF(D41=$O$4,$P$4,IF(D41=$O$5,$P$5,IF(D41=$O$6,$P$6,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="G41" s="49">
+        <f>IF(E41=$N$4,F41,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="49">
+        <f>SUM(F25:F41)</f>
+        <v>41</v>
+      </c>
+      <c r="I41" s="49">
+        <f>SUM(G25:G41)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="51">
+        <f>H41/$F$54+J23</f>
+        <v>0.76068376068376065</v>
+      </c>
+      <c r="K41" s="51">
+        <f>I41/$F$54+K23</f>
+        <v>0.41025641025641024</v>
+      </c>
+      <c r="L41" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="20"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="8"/>
+      <c r="B43" s="48">
+        <v>3</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="49">
+        <f>IF(D43=$O$4,$P$4,IF(D43=$O$5,$P$5,IF(D43=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G43" s="49">
+        <f>IF(E43=$N$4,F43,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="8"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="49">
+        <f>IF(D44=$O$4,$P$4,IF(D44=$O$5,$P$5,IF(D44=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G44" s="49">
+        <f>IF(E44=$N$4,F44,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="8"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="49">
+        <f>IF(D45=$O$4,$P$4,IF(D45=$O$5,$P$5,IF(D45=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G45" s="49">
+        <f>IF(E45=$N$4,F45,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="49">
+        <f>IF(D46=$O$4,$P$4,IF(D46=$O$5,$P$5,IF(D46=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G46" s="49">
+        <f>IF(E46=$N$4,F46,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="49">
+        <f>IF(D47=$O$4,$P$4,IF(D47=$O$5,$P$5,IF(D47=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G47" s="49">
+        <f>IF(E47=$N$4,F47,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="8"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="49">
+        <f>IF(D48=$O$4,$P$4,IF(D48=$O$5,$P$5,IF(D48=$O$6,$P$6,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="G48" s="49">
+        <f>IF(E48=$N$4,F48,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="8"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="49">
+        <f>IF(D49=$O$4,$P$4,IF(D49=$O$5,$P$5,IF(D49=$O$6,$P$6,0)))</f>
+        <v>2</v>
+      </c>
+      <c r="G49" s="49">
+        <f>IF(E49=$N$4,F49,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="49">
+        <f>IF(D50=$O$4,$P$4,IF(D50=$O$5,$P$5,IF(D50=$O$6,$P$6,0)))</f>
+        <v>2</v>
+      </c>
+      <c r="G50" s="49">
+        <f>IF(E50=$N$4,F50,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="8"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="49">
+        <f>IF(D51=$O$4,$P$4,IF(D51=$O$5,$P$5,IF(D51=$O$6,$P$6,0)))</f>
+        <v>2</v>
+      </c>
+      <c r="G51" s="49">
+        <f>IF(E51=$N$4,F51,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="8"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="49">
+        <f>IF(D52=$O$4,$P$4,IF(D52=$O$5,$P$5,IF(D52=$O$6,$P$6,0)))</f>
+        <v>2</v>
+      </c>
+      <c r="G52" s="49">
+        <f>IF(E52=$N$4,F52,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="8"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="49">
+        <f>IF(D53=$O$4,$P$4,IF(D53=$O$5,$P$5,IF(D53=$O$6,$P$6,0)))</f>
+        <v>2</v>
+      </c>
+      <c r="G53" s="49">
+        <f>IF(E53=$N$4,F53,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="49">
+        <f>SUM(F43:F53)</f>
+        <v>28</v>
+      </c>
+      <c r="I53" s="49">
+        <f>SUM(G43:G53)</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="51">
+        <f>H53/$F$54+J41</f>
+        <v>1</v>
+      </c>
+      <c r="K53" s="51">
+        <f>I53/$F$54+K41</f>
+        <v>0.41025641025641024</v>
+      </c>
+      <c r="L53" s="49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="8"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="49">
+        <f>SUM(F4:F53)</f>
+        <v>117</v>
+      </c>
+      <c r="G54" s="49">
+        <f>SUM(G4:G53)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="8"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="8"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="8"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+    </row>
+    <row r="58" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="8"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+    </row>
+    <row r="59" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="8"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="8"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+    </row>
+    <row r="61" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="8"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="8"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+    </row>
+    <row r="63" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="8"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+    </row>
+    <row r="64" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="8"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="8"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="8"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="8"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="8"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="8"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="8"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="8"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="8"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="8"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="8"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="8"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="8"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="8"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="8"/>
+    </row>
+    <row r="79" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="8"/>
+    </row>
+    <row r="80" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="8"/>
+    </row>
+    <row r="81" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="8"/>
+    </row>
+    <row r="82" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="8"/>
+    </row>
+    <row r="83" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="8"/>
+    </row>
+    <row r="84" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="8"/>
+    </row>
+    <row r="85" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="8"/>
+    </row>
+    <row r="86" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="8"/>
+    </row>
+    <row r="87" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="8"/>
+    </row>
+    <row r="88" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="8"/>
+    </row>
+    <row r="89" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="8"/>
+    </row>
+    <row r="90" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="8"/>
+    </row>
+    <row r="91" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="8"/>
+    </row>
+    <row r="92" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="8"/>
+    </row>
+    <row r="93" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="8"/>
+    </row>
+    <row r="94" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="8"/>
+    </row>
+    <row r="95" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="8"/>
+    </row>
+    <row r="96" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="8"/>
+    </row>
+    <row r="97" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="8"/>
+    </row>
+    <row r="98" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="8"/>
+    </row>
+    <row r="99" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="8"/>
+    </row>
+    <row r="100" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="8"/>
+    </row>
+    <row r="101" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="8"/>
+    </row>
+    <row r="102" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="8"/>
+    </row>
+    <row r="103" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="8"/>
+    </row>
+    <row r="104" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="8"/>
+    </row>
+    <row r="105" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="8"/>
+    </row>
+    <row r="106" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="8"/>
+    </row>
+    <row r="107" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="8"/>
+    </row>
+    <row r="108" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="8"/>
+    </row>
+    <row r="109" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="8"/>
+    </row>
+    <row r="110" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="8"/>
+    </row>
+    <row r="111" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A111" s="8"/>
+    </row>
+    <row r="112" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="8"/>
+    </row>
+    <row r="113" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="8"/>
+    </row>
+    <row r="114" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="8"/>
+    </row>
+    <row r="115" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="8"/>
+    </row>
+    <row r="116" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="8"/>
+    </row>
+    <row r="117" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A117" s="8"/>
+    </row>
+    <row r="118" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="8"/>
+    </row>
+    <row r="119" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="8"/>
+    </row>
+    <row r="120" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="8"/>
+    </row>
+    <row r="121" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A121" s="8"/>
+    </row>
+    <row r="122" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A122" s="8"/>
+    </row>
+    <row r="123" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="8"/>
+    </row>
+    <row r="124" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="8"/>
+    </row>
+    <row r="125" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="8"/>
+    </row>
+    <row r="126" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A126" s="8"/>
+    </row>
+    <row r="127" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A127" s="8"/>
+    </row>
+    <row r="128" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A128" s="8"/>
+    </row>
+    <row r="129" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A129" s="8"/>
+    </row>
+    <row r="130" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A130" s="8"/>
+    </row>
+    <row r="131" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="8"/>
+    </row>
+    <row r="132" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A132" s="8"/>
+    </row>
+    <row r="133" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A133" s="8"/>
+    </row>
+    <row r="134" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A134" s="8"/>
+    </row>
+    <row r="135" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A135" s="8"/>
+    </row>
+    <row r="136" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A136" s="8"/>
+    </row>
+    <row r="137" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A137" s="8"/>
+    </row>
+    <row r="138" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A138" s="8"/>
+    </row>
+    <row r="139" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A139" s="8"/>
+    </row>
+    <row r="140" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A140" s="8"/>
+    </row>
+    <row r="141" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A141" s="8"/>
+    </row>
+    <row r="142" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A142" s="8"/>
+    </row>
+    <row r="143" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A143" s="8"/>
+    </row>
+    <row r="144" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A144" s="8"/>
+    </row>
+    <row r="145" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A145" s="8"/>
+    </row>
+    <row r="146" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A146" s="8"/>
+    </row>
+    <row r="147" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A147" s="8"/>
+    </row>
+    <row r="148" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A148" s="8"/>
+    </row>
+    <row r="149" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A149" s="8"/>
+    </row>
+    <row r="150" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A150" s="8"/>
+    </row>
+    <row r="151" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A151" s="8"/>
+    </row>
+    <row r="152" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A152" s="8"/>
+    </row>
+    <row r="153" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A153" s="8"/>
+    </row>
+    <row r="154" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A154" s="8"/>
+    </row>
+    <row r="155" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A155" s="8"/>
+    </row>
+    <row r="156" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A156" s="8"/>
+    </row>
+    <row r="157" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A157" s="8"/>
+    </row>
+    <row r="158" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A158" s="8"/>
+    </row>
+    <row r="159" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A159" s="8"/>
+    </row>
+    <row r="160" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A160" s="8"/>
+    </row>
+    <row r="161" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A161" s="8"/>
+    </row>
+    <row r="162" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A162" s="8"/>
+    </row>
+    <row r="163" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A163" s="8"/>
+    </row>
+    <row r="164" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A164" s="8"/>
+    </row>
+    <row r="165" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A165" s="8"/>
+    </row>
+    <row r="166" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A166" s="8"/>
+    </row>
+    <row r="167" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A167" s="8"/>
+    </row>
+    <row r="168" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A168" s="8"/>
+    </row>
+    <row r="169" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A169" s="8"/>
+    </row>
+    <row r="170" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A170" s="8"/>
+    </row>
+    <row r="171" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A171" s="8"/>
+    </row>
+    <row r="172" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A172" s="8"/>
+    </row>
+    <row r="173" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A173" s="8"/>
+    </row>
+    <row r="174" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A174" s="8"/>
+    </row>
+    <row r="175" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A175" s="8"/>
+    </row>
+    <row r="176" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A176" s="8"/>
+    </row>
+    <row r="177" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A177" s="8"/>
+    </row>
+    <row r="178" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A178" s="8"/>
+    </row>
+    <row r="179" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A179" s="8"/>
+    </row>
+    <row r="180" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A180" s="8"/>
+    </row>
+    <row r="181" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A181" s="8"/>
+    </row>
+    <row r="182" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A182" s="8"/>
+    </row>
+    <row r="183" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A183" s="8"/>
+    </row>
+    <row r="184" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A184" s="8"/>
+    </row>
+    <row r="185" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A185" s="8"/>
+    </row>
+    <row r="186" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A186" s="8"/>
+    </row>
+    <row r="187" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A187" s="8"/>
+    </row>
+    <row r="188" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A188" s="8"/>
+    </row>
+    <row r="189" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A189" s="8"/>
+    </row>
+    <row r="190" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A190" s="8"/>
+    </row>
+    <row r="191" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A191" s="8"/>
+    </row>
+    <row r="192" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A192" s="8"/>
+    </row>
+    <row r="193" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A193" s="8"/>
+    </row>
+    <row r="194" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A194" s="8"/>
+    </row>
+    <row r="195" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A195" s="8"/>
+    </row>
+    <row r="196" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A196" s="8"/>
+    </row>
+    <row r="197" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A197" s="8"/>
+    </row>
+    <row r="198" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A198" s="8"/>
+    </row>
+    <row r="199" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A199" s="8"/>
+    </row>
+    <row r="200" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A200" s="8"/>
+    </row>
+    <row r="201" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A201" s="8"/>
+    </row>
+    <row r="202" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A202" s="8"/>
+    </row>
+    <row r="203" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A203" s="8"/>
+    </row>
+    <row r="204" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A204" s="8"/>
+    </row>
+    <row r="205" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A205" s="8"/>
+    </row>
+    <row r="206" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A206" s="8"/>
+    </row>
+    <row r="207" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A207" s="8"/>
+    </row>
+    <row r="208" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A208" s="8"/>
+    </row>
+    <row r="209" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A209" s="8"/>
+    </row>
+    <row r="210" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A210" s="8"/>
+    </row>
+    <row r="211" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A211" s="8"/>
+    </row>
+    <row r="212" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A212" s="8"/>
+    </row>
+    <row r="213" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A213" s="8"/>
+    </row>
+    <row r="214" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A214" s="8"/>
+    </row>
+    <row r="215" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A215" s="8"/>
+    </row>
+    <row r="216" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A216" s="8"/>
+    </row>
+    <row r="217" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A217" s="8"/>
+    </row>
+    <row r="218" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A218" s="8"/>
+    </row>
+    <row r="219" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A219" s="8"/>
+    </row>
+    <row r="220" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A220" s="8"/>
+    </row>
+    <row r="221" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A221" s="8"/>
+    </row>
+    <row r="222" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A222" s="8"/>
+    </row>
+    <row r="223" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A223" s="8"/>
+    </row>
+    <row r="224" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A224" s="8"/>
+    </row>
+    <row r="225" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A225" s="8"/>
+    </row>
+    <row r="226" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A226" s="8"/>
+    </row>
+    <row r="227" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A227" s="8"/>
+    </row>
+    <row r="228" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A228" s="8"/>
+    </row>
+    <row r="229" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A229" s="8"/>
+    </row>
+    <row r="230" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A230" s="8"/>
+    </row>
+    <row r="231" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A231" s="8"/>
+    </row>
+    <row r="232" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A232" s="8"/>
+    </row>
+    <row r="233" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A233" s="8"/>
+    </row>
+    <row r="234" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A234" s="8"/>
+    </row>
+    <row r="235" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A235" s="8"/>
+    </row>
+    <row r="236" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A236" s="8"/>
+    </row>
+    <row r="237" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A237" s="8"/>
+    </row>
+    <row r="238" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A238" s="8"/>
+    </row>
+    <row r="239" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A239" s="8"/>
+    </row>
+    <row r="240" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A240" s="8"/>
+    </row>
+    <row r="241" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A241" s="8"/>
+    </row>
+    <row r="242" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A242" s="8"/>
+    </row>
+    <row r="243" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A243" s="8"/>
+    </row>
+    <row r="244" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A244" s="8"/>
+    </row>
+    <row r="245" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A245" s="8"/>
+    </row>
+    <row r="246" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A246" s="8"/>
+    </row>
+    <row r="247" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A247" s="8"/>
+    </row>
+    <row r="248" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A248" s="8"/>
+    </row>
+    <row r="249" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A249" s="8"/>
+    </row>
+    <row r="250" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A250" s="8"/>
+    </row>
+    <row r="251" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A251" s="8"/>
+    </row>
+    <row r="252" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A252" s="8"/>
+    </row>
+    <row r="253" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A253" s="8"/>
+    </row>
+    <row r="254" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A254" s="8"/>
+    </row>
+    <row r="255" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A255" s="8"/>
+    </row>
+    <row r="256" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A256" s="8"/>
+    </row>
+    <row r="257" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A257" s="8"/>
+    </row>
+    <row r="258" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A258" s="8"/>
+    </row>
+    <row r="259" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A259" s="8"/>
+    </row>
+    <row r="260" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A260" s="8"/>
+    </row>
+    <row r="261" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A261" s="8"/>
+    </row>
+    <row r="262" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A262" s="8"/>
+    </row>
+    <row r="263" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A263" s="8"/>
+    </row>
+    <row r="264" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A264" s="8"/>
+    </row>
+    <row r="265" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A265" s="8"/>
+    </row>
+    <row r="266" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A266" s="8"/>
+    </row>
+    <row r="267" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A267" s="8"/>
+    </row>
+    <row r="268" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A268" s="8"/>
+    </row>
+    <row r="269" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A269" s="8"/>
+    </row>
+    <row r="270" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A270" s="8"/>
+    </row>
+    <row r="271" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A271" s="8"/>
+    </row>
+    <row r="272" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A272" s="8"/>
+    </row>
+    <row r="273" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A273" s="8"/>
+    </row>
+    <row r="274" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A274" s="8"/>
+    </row>
+    <row r="275" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A275" s="8"/>
+    </row>
+    <row r="276" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A276" s="8"/>
+    </row>
+    <row r="277" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A277" s="8"/>
+    </row>
+    <row r="278" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A278" s="8"/>
+    </row>
+    <row r="279" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A279" s="8"/>
+    </row>
+    <row r="280" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A280" s="8"/>
+    </row>
+    <row r="281" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A281" s="8"/>
+    </row>
+    <row r="282" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A282" s="8"/>
+    </row>
+    <row r="283" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A283" s="8"/>
+    </row>
+    <row r="284" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A284" s="8"/>
+    </row>
+    <row r="285" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A285" s="8"/>
+    </row>
+    <row r="286" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A286" s="8"/>
+    </row>
+    <row r="287" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A287" s="8"/>
+    </row>
+    <row r="288" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A288" s="8"/>
+    </row>
+    <row r="289" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A289" s="8"/>
+    </row>
+    <row r="290" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A290" s="8"/>
+    </row>
+    <row r="291" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A291" s="8"/>
+    </row>
+    <row r="292" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A292" s="8"/>
+    </row>
+    <row r="293" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A293" s="8"/>
+    </row>
+    <row r="294" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A294" s="8"/>
+    </row>
+    <row r="295" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A295" s="8"/>
+    </row>
+    <row r="296" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A296" s="8"/>
+    </row>
+    <row r="297" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A297" s="8"/>
+    </row>
+    <row r="298" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A298" s="8"/>
+    </row>
+    <row r="299" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A299" s="8"/>
+    </row>
+    <row r="300" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A300" s="8"/>
+    </row>
+    <row r="301" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A301" s="8"/>
+    </row>
+    <row r="302" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A302" s="8"/>
+    </row>
+    <row r="303" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A303" s="8"/>
+    </row>
+    <row r="304" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A304" s="8"/>
+    </row>
+    <row r="305" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A305" s="8"/>
+    </row>
+    <row r="306" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A306" s="8"/>
+    </row>
+    <row r="307" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A307" s="8"/>
+    </row>
+    <row r="308" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A308" s="8"/>
+    </row>
+    <row r="309" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A309" s="8"/>
+    </row>
+    <row r="310" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A310" s="8"/>
+    </row>
+    <row r="311" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A311" s="8"/>
+    </row>
+    <row r="312" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A312" s="8"/>
+    </row>
+    <row r="313" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A313" s="8"/>
+    </row>
+    <row r="314" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A314" s="8"/>
+    </row>
+    <row r="315" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A315" s="8"/>
+    </row>
+    <row r="316" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A316" s="8"/>
+    </row>
+    <row r="317" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A317" s="8"/>
+    </row>
+    <row r="318" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A318" s="8"/>
+    </row>
+    <row r="319" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A319" s="8"/>
+    </row>
+    <row r="320" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A320" s="8"/>
+    </row>
+    <row r="321" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A321" s="8"/>
+    </row>
+    <row r="322" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A322" s="8"/>
+    </row>
+    <row r="323" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A323" s="8"/>
+    </row>
+    <row r="324" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A324" s="8"/>
+    </row>
+    <row r="325" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A325" s="8"/>
+    </row>
+    <row r="326" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A326" s="8"/>
+    </row>
+    <row r="327" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A327" s="8"/>
+    </row>
+    <row r="328" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A328" s="8"/>
+    </row>
+    <row r="329" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A329" s="8"/>
+    </row>
+    <row r="330" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A330" s="8"/>
+    </row>
+    <row r="331" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A331" s="8"/>
+    </row>
+    <row r="332" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A332" s="8"/>
+    </row>
+    <row r="333" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A333" s="8"/>
+    </row>
+    <row r="334" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A334" s="8"/>
+    </row>
+    <row r="335" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A335" s="8"/>
+    </row>
+    <row r="336" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A336" s="8"/>
+    </row>
+    <row r="337" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A337" s="8"/>
+    </row>
+    <row r="338" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A338" s="8"/>
+    </row>
+    <row r="339" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A339" s="8"/>
+    </row>
+    <row r="340" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A340" s="8"/>
+    </row>
+    <row r="341" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A341" s="8"/>
+    </row>
+    <row r="342" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A342" s="8"/>
+    </row>
+    <row r="343" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A343" s="8"/>
+    </row>
+    <row r="344" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A344" s="8"/>
+    </row>
+    <row r="345" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A345" s="8"/>
+    </row>
+    <row r="346" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A346" s="8"/>
+    </row>
+    <row r="347" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A347" s="8"/>
+    </row>
+    <row r="348" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A348" s="8"/>
+    </row>
+    <row r="349" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A349" s="8"/>
+    </row>
+    <row r="350" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A350" s="8"/>
+    </row>
+    <row r="351" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A351" s="8"/>
+    </row>
+    <row r="352" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A352" s="8"/>
+    </row>
+    <row r="353" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A353" s="8"/>
+    </row>
+    <row r="354" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A354" s="8"/>
+    </row>
+    <row r="355" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A355" s="8"/>
+    </row>
+    <row r="356" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A356" s="8"/>
+    </row>
+    <row r="357" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A357" s="8"/>
+    </row>
+    <row r="358" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A358" s="8"/>
+    </row>
+    <row r="359" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A359" s="8"/>
+    </row>
+    <row r="360" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A360" s="8"/>
+    </row>
+    <row r="361" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A361" s="8"/>
+    </row>
+    <row r="362" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A362" s="8"/>
+    </row>
+    <row r="363" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A363" s="8"/>
+    </row>
+    <row r="364" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A364" s="8"/>
+    </row>
+    <row r="365" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A365" s="8"/>
+    </row>
+    <row r="366" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A366" s="8"/>
+    </row>
+    <row r="367" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A367" s="8"/>
+    </row>
+    <row r="368" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A368" s="8"/>
+    </row>
+    <row r="369" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A369" s="8"/>
+    </row>
+    <row r="370" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A370" s="8"/>
+    </row>
+    <row r="371" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A371" s="8"/>
+    </row>
+    <row r="372" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A372" s="8"/>
+    </row>
+    <row r="373" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A373" s="8"/>
+    </row>
+    <row r="374" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A374" s="8"/>
+    </row>
+    <row r="375" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A375" s="8"/>
+    </row>
+    <row r="376" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A376" s="8"/>
+    </row>
+    <row r="377" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A377" s="8"/>
+    </row>
+    <row r="378" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A378" s="8"/>
+    </row>
+    <row r="379" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A379" s="8"/>
+    </row>
+    <row r="380" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A380" s="8"/>
+    </row>
+    <row r="381" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A381" s="8"/>
+    </row>
+    <row r="382" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A382" s="8"/>
+    </row>
+    <row r="383" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A383" s="8"/>
+    </row>
+    <row r="384" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A384" s="8"/>
+    </row>
+    <row r="385" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A385" s="8"/>
+    </row>
+    <row r="386" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A386" s="8"/>
+    </row>
+    <row r="387" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A387" s="8"/>
+    </row>
+    <row r="388" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A388" s="8"/>
+    </row>
+    <row r="389" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A389" s="8"/>
+    </row>
+    <row r="390" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A390" s="8"/>
+    </row>
+    <row r="391" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A391" s="8"/>
+    </row>
+    <row r="392" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A392" s="8"/>
+    </row>
+    <row r="393" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A393" s="8"/>
+    </row>
+    <row r="394" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A394" s="8"/>
+    </row>
+    <row r="395" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A395" s="8"/>
+    </row>
+    <row r="396" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A396" s="8"/>
+    </row>
+    <row r="397" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A397" s="8"/>
+    </row>
+    <row r="398" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A398" s="8"/>
+    </row>
+    <row r="399" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A399" s="8"/>
+    </row>
+    <row r="400" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A400" s="8"/>
+    </row>
+    <row r="401" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A401" s="8"/>
+    </row>
+    <row r="402" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A402" s="8"/>
+    </row>
+    <row r="403" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A403" s="8"/>
+    </row>
+    <row r="404" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A404" s="8"/>
+    </row>
+    <row r="405" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A405" s="8"/>
+    </row>
+    <row r="406" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A406" s="8"/>
+    </row>
+    <row r="407" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A407" s="8"/>
+    </row>
+    <row r="408" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A408" s="8"/>
+    </row>
+    <row r="409" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A409" s="8"/>
+    </row>
+    <row r="410" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A410" s="8"/>
+    </row>
+    <row r="411" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A411" s="8"/>
+    </row>
+    <row r="412" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A412" s="8"/>
+    </row>
+    <row r="413" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A413" s="8"/>
+    </row>
+    <row r="414" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A414" s="8"/>
+    </row>
+    <row r="415" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A415" s="8"/>
+    </row>
+    <row r="416" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A416" s="8"/>
+    </row>
+    <row r="417" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A417" s="8"/>
+    </row>
+    <row r="418" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A418" s="8"/>
+    </row>
+    <row r="419" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A419" s="8"/>
+    </row>
+    <row r="420" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A420" s="8"/>
+    </row>
+    <row r="421" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A421" s="8"/>
+    </row>
+    <row r="422" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A422" s="8"/>
+    </row>
+    <row r="423" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A423" s="8"/>
+    </row>
+    <row r="424" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A424" s="8"/>
+    </row>
+    <row r="425" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A425" s="8"/>
+    </row>
+    <row r="426" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A426" s="8"/>
+    </row>
+    <row r="427" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A427" s="8"/>
+    </row>
+    <row r="428" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A428" s="8"/>
+    </row>
+    <row r="429" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A429" s="8"/>
+    </row>
+    <row r="430" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A430" s="8"/>
+    </row>
+    <row r="431" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A431" s="8"/>
+    </row>
+    <row r="432" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A432" s="8"/>
+    </row>
+    <row r="433" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A433" s="8"/>
+    </row>
+    <row r="434" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A434" s="8"/>
+    </row>
+    <row r="435" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A435" s="8"/>
+    </row>
+    <row r="436" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A436" s="8"/>
+    </row>
+    <row r="437" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A437" s="8"/>
+    </row>
+    <row r="438" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A438" s="8"/>
+    </row>
+    <row r="439" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A439" s="8"/>
+    </row>
+    <row r="440" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A440" s="8"/>
+    </row>
+    <row r="441" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A441" s="8"/>
+    </row>
+    <row r="442" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A442" s="8"/>
+    </row>
+    <row r="443" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A443" s="8"/>
+    </row>
+    <row r="444" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A444" s="8"/>
+    </row>
+    <row r="445" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A445" s="8"/>
+    </row>
+    <row r="446" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A446" s="8"/>
+    </row>
+    <row r="447" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A447" s="8"/>
+    </row>
+    <row r="448" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A448" s="8"/>
+    </row>
+    <row r="449" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A449" s="8"/>
+    </row>
+    <row r="450" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A450" s="8"/>
+    </row>
+    <row r="451" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A451" s="8"/>
+    </row>
+    <row r="452" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A452" s="8"/>
+    </row>
+    <row r="453" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A453" s="8"/>
+    </row>
+    <row r="454" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A454" s="8"/>
+    </row>
+    <row r="455" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A455" s="8"/>
+    </row>
+    <row r="456" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A456" s="8"/>
+    </row>
+    <row r="457" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A457" s="8"/>
+    </row>
+    <row r="458" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A458" s="8"/>
+    </row>
+    <row r="459" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A459" s="8"/>
+    </row>
+    <row r="460" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A460" s="8"/>
+    </row>
+    <row r="461" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A461" s="8"/>
+    </row>
+    <row r="462" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A462" s="8"/>
+    </row>
+    <row r="463" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A463" s="8"/>
+    </row>
+    <row r="464" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A464" s="8"/>
+    </row>
+    <row r="465" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A465" s="8"/>
+    </row>
+    <row r="466" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A466" s="8"/>
+    </row>
+    <row r="467" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A467" s="8"/>
+    </row>
+    <row r="468" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A468" s="8"/>
+    </row>
+    <row r="469" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A469" s="8"/>
+    </row>
+    <row r="470" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A470" s="8"/>
+    </row>
+    <row r="471" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A471" s="8"/>
+    </row>
+    <row r="472" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A472" s="8"/>
+    </row>
+    <row r="473" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A473" s="8"/>
+    </row>
+    <row r="474" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A474" s="8"/>
+    </row>
+    <row r="475" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A475" s="8"/>
+    </row>
+    <row r="476" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A476" s="8"/>
+    </row>
+    <row r="477" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A477" s="8"/>
+    </row>
+    <row r="478" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A478" s="8"/>
+    </row>
+    <row r="479" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A479" s="8"/>
+    </row>
+    <row r="480" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A480" s="8"/>
+    </row>
+    <row r="481" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A481" s="8"/>
+    </row>
+    <row r="482" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A482" s="8"/>
+    </row>
+    <row r="483" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A483" s="8"/>
+    </row>
+    <row r="484" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A484" s="8"/>
+    </row>
+    <row r="485" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A485" s="8"/>
+    </row>
+    <row r="486" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A486" s="8"/>
+    </row>
+    <row r="487" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A487" s="8"/>
+    </row>
+    <row r="488" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A488" s="8"/>
+    </row>
+    <row r="489" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A489" s="8"/>
+    </row>
+    <row r="490" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A490" s="8"/>
+    </row>
+    <row r="491" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A491" s="8"/>
+    </row>
+    <row r="492" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A492" s="8"/>
+    </row>
+    <row r="493" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A493" s="8"/>
+    </row>
+    <row r="494" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A494" s="8"/>
+    </row>
+    <row r="495" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A495" s="8"/>
+    </row>
+    <row r="496" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A496" s="8"/>
+    </row>
+    <row r="497" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A497" s="8"/>
+    </row>
+    <row r="498" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A498" s="8"/>
+    </row>
+    <row r="499" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A499" s="8"/>
+    </row>
+    <row r="500" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A500" s="8"/>
+    </row>
+    <row r="501" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A501" s="8"/>
+    </row>
+    <row r="502" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A502" s="8"/>
+    </row>
+    <row r="503" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A503" s="8"/>
+    </row>
+    <row r="504" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A504" s="8"/>
+    </row>
+    <row r="505" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A505" s="8"/>
+    </row>
+    <row r="506" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A506" s="8"/>
+    </row>
+    <row r="507" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A507" s="8"/>
+    </row>
+    <row r="508" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A508" s="8"/>
+    </row>
+    <row r="509" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A509" s="8"/>
+    </row>
+    <row r="510" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A510" s="8"/>
+    </row>
+    <row r="511" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A511" s="8"/>
+    </row>
+    <row r="512" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A512" s="8"/>
+    </row>
+    <row r="513" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A513" s="8"/>
+    </row>
+    <row r="514" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A514" s="8"/>
+    </row>
+    <row r="515" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A515" s="8"/>
+    </row>
+    <row r="516" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A516" s="8"/>
+    </row>
+    <row r="517" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A517" s="8"/>
+    </row>
+    <row r="518" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A518" s="8"/>
+    </row>
+    <row r="519" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A519" s="8"/>
+    </row>
+    <row r="520" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A520" s="8"/>
+    </row>
+    <row r="521" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A521" s="8"/>
+    </row>
+    <row r="522" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A522" s="8"/>
+    </row>
+    <row r="523" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A523" s="8"/>
+    </row>
+    <row r="524" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A524" s="8"/>
+    </row>
+    <row r="525" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A525" s="8"/>
+    </row>
+    <row r="526" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A526" s="8"/>
+    </row>
+    <row r="527" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A527" s="8"/>
+    </row>
+    <row r="528" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A528" s="8"/>
+    </row>
+    <row r="529" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A529" s="8"/>
+    </row>
+    <row r="530" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A530" s="8"/>
+    </row>
+    <row r="531" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A531" s="8"/>
+    </row>
+    <row r="532" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A532" s="8"/>
+    </row>
+    <row r="533" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A533" s="8"/>
+    </row>
+    <row r="534" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A534" s="8"/>
+    </row>
+    <row r="535" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A535" s="8"/>
+    </row>
+    <row r="536" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A536" s="8"/>
+    </row>
+    <row r="537" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A537" s="8"/>
+    </row>
+    <row r="538" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A538" s="8"/>
+    </row>
+    <row r="539" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A539" s="8"/>
+    </row>
+    <row r="540" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A540" s="8"/>
+    </row>
+    <row r="541" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A541" s="8"/>
+    </row>
+    <row r="542" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A542" s="8"/>
+    </row>
+    <row r="543" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A543" s="8"/>
+    </row>
+    <row r="544" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A544" s="8"/>
+    </row>
+    <row r="545" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A545" s="8"/>
+    </row>
+    <row r="546" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A546" s="8"/>
+    </row>
+    <row r="547" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A547" s="8"/>
+    </row>
+    <row r="548" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A548" s="8"/>
+    </row>
+    <row r="549" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A549" s="8"/>
+    </row>
+    <row r="550" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A550" s="8"/>
+    </row>
+    <row r="551" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A551" s="8"/>
+    </row>
+    <row r="552" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A552" s="8"/>
+    </row>
+    <row r="553" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A553" s="8"/>
+    </row>
+    <row r="554" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A554" s="8"/>
+    </row>
+    <row r="555" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A555" s="8"/>
+    </row>
+    <row r="556" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A556" s="8"/>
+    </row>
+    <row r="557" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A557" s="8"/>
+    </row>
+    <row r="558" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A558" s="8"/>
+    </row>
+    <row r="559" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A559" s="8"/>
+    </row>
+    <row r="560" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A560" s="8"/>
+    </row>
+    <row r="561" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A561" s="8"/>
+    </row>
+    <row r="562" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A562" s="8"/>
+    </row>
+    <row r="563" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A563" s="8"/>
+    </row>
+    <row r="564" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A564" s="8"/>
+    </row>
+    <row r="565" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A565" s="8"/>
+    </row>
+    <row r="566" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A566" s="8"/>
+    </row>
+    <row r="567" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A567" s="8"/>
+    </row>
+    <row r="568" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A568" s="8"/>
+    </row>
+    <row r="569" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A569" s="8"/>
+    </row>
+    <row r="570" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A570" s="8"/>
+    </row>
+    <row r="571" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A571" s="8"/>
+    </row>
+    <row r="572" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A572" s="8"/>
+    </row>
+    <row r="573" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A573" s="8"/>
+    </row>
+    <row r="574" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A574" s="8"/>
+    </row>
+    <row r="575" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A575" s="8"/>
+    </row>
+    <row r="576" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A576" s="8"/>
+    </row>
+    <row r="577" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A577" s="8"/>
+    </row>
+    <row r="578" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A578" s="8"/>
+    </row>
+    <row r="579" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A579" s="8"/>
+    </row>
+    <row r="580" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A580" s="8"/>
+    </row>
+    <row r="581" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A581" s="8"/>
+    </row>
+    <row r="582" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A582" s="8"/>
+    </row>
+    <row r="583" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A583" s="8"/>
+    </row>
+    <row r="584" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A584" s="8"/>
+    </row>
+    <row r="585" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A585" s="8"/>
+    </row>
+    <row r="586" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A586" s="8"/>
+    </row>
+    <row r="587" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A587" s="8"/>
+    </row>
+    <row r="588" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A588" s="8"/>
+    </row>
+    <row r="589" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A589" s="8"/>
+    </row>
+    <row r="590" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A590" s="8"/>
+    </row>
+    <row r="591" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A591" s="8"/>
+    </row>
+    <row r="592" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A592" s="8"/>
+    </row>
+    <row r="593" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A593" s="8"/>
+    </row>
+    <row r="594" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A594" s="8"/>
+    </row>
+    <row r="595" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A595" s="8"/>
+    </row>
+    <row r="596" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A596" s="8"/>
+    </row>
+    <row r="597" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A597" s="8"/>
+    </row>
+    <row r="598" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A598" s="8"/>
+    </row>
+    <row r="599" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A599" s="8"/>
+    </row>
+    <row r="600" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A600" s="8"/>
+    </row>
+    <row r="601" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A601" s="8"/>
+    </row>
+    <row r="602" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A602" s="8"/>
+    </row>
+    <row r="603" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A603" s="8"/>
+    </row>
+    <row r="604" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A604" s="8"/>
+    </row>
+    <row r="605" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A605" s="8"/>
+    </row>
+    <row r="606" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A606" s="8"/>
+    </row>
+    <row r="607" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A607" s="8"/>
+    </row>
+    <row r="608" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A608" s="8"/>
+    </row>
+    <row r="609" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A609" s="8"/>
+    </row>
+    <row r="610" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A610" s="8"/>
+    </row>
+    <row r="611" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A611" s="8"/>
+    </row>
+    <row r="612" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A612" s="8"/>
+    </row>
+    <row r="613" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A613" s="8"/>
+    </row>
+    <row r="614" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A614" s="8"/>
+    </row>
+    <row r="615" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A615" s="8"/>
+    </row>
+    <row r="616" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A616" s="8"/>
+    </row>
+    <row r="617" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A617" s="8"/>
+    </row>
+    <row r="618" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A618" s="8"/>
+    </row>
+    <row r="619" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A619" s="8"/>
+    </row>
+    <row r="620" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A620" s="8"/>
+    </row>
+    <row r="621" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A621" s="8"/>
+    </row>
+    <row r="622" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A622" s="8"/>
+    </row>
+    <row r="623" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A623" s="8"/>
+    </row>
+    <row r="624" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A624" s="8"/>
+    </row>
+    <row r="625" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A625" s="8"/>
+    </row>
+    <row r="626" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A626" s="8"/>
+    </row>
+    <row r="627" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A627" s="8"/>
+    </row>
+    <row r="628" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A628" s="8"/>
+    </row>
+    <row r="629" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A629" s="8"/>
+    </row>
+    <row r="630" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A630" s="8"/>
+    </row>
+    <row r="631" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A631" s="8"/>
+    </row>
+    <row r="632" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A632" s="8"/>
+    </row>
+    <row r="633" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A633" s="8"/>
+    </row>
+    <row r="634" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A634" s="8"/>
+    </row>
+    <row r="635" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A635" s="8"/>
+    </row>
+    <row r="636" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A636" s="8"/>
+    </row>
+    <row r="637" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A637" s="8"/>
+    </row>
+    <row r="638" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A638" s="8"/>
+    </row>
+    <row r="639" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A639" s="8"/>
+    </row>
+    <row r="640" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A640" s="8"/>
+    </row>
+    <row r="641" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A641" s="8"/>
+    </row>
+    <row r="642" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A642" s="8"/>
+    </row>
+    <row r="643" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A643" s="8"/>
+    </row>
+    <row r="644" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A644" s="8"/>
+    </row>
+    <row r="645" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A645" s="8"/>
+    </row>
+    <row r="646" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A646" s="8"/>
+    </row>
+    <row r="647" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A647" s="8"/>
+    </row>
+    <row r="648" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A648" s="8"/>
+    </row>
+    <row r="649" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A649" s="8"/>
+    </row>
+    <row r="650" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A650" s="8"/>
+    </row>
+    <row r="651" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A651" s="8"/>
+    </row>
+    <row r="652" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A652" s="8"/>
+    </row>
+    <row r="653" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A653" s="8"/>
+    </row>
+    <row r="654" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A654" s="8"/>
+    </row>
+    <row r="655" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A655" s="8"/>
+    </row>
+    <row r="656" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A656" s="8"/>
+    </row>
+    <row r="657" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A657" s="8"/>
+    </row>
+    <row r="658" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A658" s="8"/>
+    </row>
+    <row r="659" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A659" s="8"/>
+    </row>
+    <row r="660" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A660" s="8"/>
+    </row>
+    <row r="661" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A661" s="8"/>
+    </row>
+    <row r="662" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A662" s="8"/>
+    </row>
+    <row r="663" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A663" s="8"/>
+    </row>
+    <row r="664" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A664" s="8"/>
+    </row>
+    <row r="665" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A665" s="8"/>
+    </row>
+    <row r="666" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A666" s="8"/>
+    </row>
+    <row r="667" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A667" s="8"/>
+    </row>
+    <row r="668" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A668" s="8"/>
+    </row>
+    <row r="669" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A669" s="8"/>
+    </row>
+    <row r="670" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A670" s="8"/>
+    </row>
+    <row r="671" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A671" s="8"/>
+    </row>
+    <row r="672" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A672" s="8"/>
+    </row>
+    <row r="673" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A673" s="8"/>
+    </row>
+    <row r="674" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A674" s="8"/>
+    </row>
+    <row r="675" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A675" s="8"/>
+    </row>
+    <row r="676" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A676" s="8"/>
+    </row>
+    <row r="677" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A677" s="8"/>
+    </row>
+    <row r="678" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A678" s="8"/>
+    </row>
+    <row r="679" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A679" s="8"/>
+    </row>
+    <row r="680" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A680" s="8"/>
+    </row>
+    <row r="681" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A681" s="8"/>
+    </row>
+    <row r="682" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A682" s="8"/>
+    </row>
+    <row r="683" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A683" s="8"/>
+    </row>
+    <row r="684" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A684" s="8"/>
+    </row>
+    <row r="685" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A685" s="8"/>
+    </row>
+    <row r="686" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A686" s="8"/>
+    </row>
+    <row r="687" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A687" s="8"/>
+    </row>
+    <row r="688" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A688" s="8"/>
+    </row>
+    <row r="689" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A689" s="8"/>
+    </row>
+    <row r="690" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A690" s="8"/>
+    </row>
+    <row r="691" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A691" s="8"/>
+    </row>
+    <row r="692" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A692" s="8"/>
+    </row>
+    <row r="693" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A693" s="8"/>
+    </row>
+    <row r="694" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A694" s="8"/>
+    </row>
+    <row r="695" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A695" s="8"/>
+    </row>
+    <row r="696" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A696" s="8"/>
+    </row>
+    <row r="697" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A697" s="8"/>
+    </row>
+    <row r="698" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A698" s="8"/>
+    </row>
+    <row r="699" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A699" s="8"/>
+    </row>
+    <row r="700" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A700" s="8"/>
+    </row>
+    <row r="701" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A701" s="8"/>
+    </row>
+    <row r="702" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A702" s="8"/>
+    </row>
+    <row r="703" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A703" s="8"/>
+    </row>
+    <row r="704" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A704" s="8"/>
+    </row>
+    <row r="705" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A705" s="8"/>
+    </row>
+    <row r="706" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A706" s="8"/>
+    </row>
+    <row r="707" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A707" s="8"/>
+    </row>
+    <row r="708" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A708" s="8"/>
+    </row>
+    <row r="709" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A709" s="8"/>
+    </row>
+    <row r="710" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A710" s="8"/>
+    </row>
+    <row r="711" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A711" s="8"/>
+    </row>
+    <row r="712" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A712" s="8"/>
+    </row>
+    <row r="713" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A713" s="8"/>
+    </row>
+    <row r="714" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A714" s="8"/>
+    </row>
+    <row r="715" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A715" s="8"/>
+    </row>
+    <row r="716" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A716" s="8"/>
+    </row>
+    <row r="717" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A717" s="8"/>
+    </row>
+    <row r="718" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A718" s="8"/>
+    </row>
+    <row r="719" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A719" s="8"/>
+    </row>
+    <row r="720" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A720" s="8"/>
+    </row>
+    <row r="721" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A721" s="8"/>
+    </row>
+    <row r="722" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A722" s="8"/>
+    </row>
+    <row r="723" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A723" s="8"/>
+    </row>
+    <row r="724" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A724" s="8"/>
+    </row>
+    <row r="725" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A725" s="8"/>
+    </row>
+    <row r="726" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A726" s="8"/>
+    </row>
+    <row r="727" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A727" s="8"/>
+    </row>
+    <row r="728" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A728" s="8"/>
+    </row>
+    <row r="729" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A729" s="8"/>
+    </row>
+    <row r="730" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A730" s="8"/>
+    </row>
+    <row r="731" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A731" s="8"/>
+    </row>
+    <row r="732" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A732" s="8"/>
+    </row>
+    <row r="733" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A733" s="8"/>
+    </row>
+    <row r="734" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A734" s="8"/>
+    </row>
+    <row r="735" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A735" s="8"/>
+    </row>
+    <row r="736" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A736" s="8"/>
+    </row>
+    <row r="737" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A737" s="8"/>
+    </row>
+    <row r="738" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A738" s="8"/>
+    </row>
+    <row r="739" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A739" s="8"/>
+    </row>
+    <row r="740" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A740" s="8"/>
+    </row>
+    <row r="741" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A741" s="8"/>
+    </row>
+    <row r="742" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A742" s="8"/>
+    </row>
+    <row r="743" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A743" s="8"/>
+    </row>
+    <row r="744" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A744" s="8"/>
+    </row>
+    <row r="745" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A745" s="8"/>
+    </row>
+    <row r="746" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A746" s="8"/>
+    </row>
+    <row r="747" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A747" s="8"/>
+    </row>
+    <row r="748" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A748" s="8"/>
+    </row>
+    <row r="749" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A749" s="8"/>
+    </row>
+    <row r="750" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A750" s="8"/>
+    </row>
+    <row r="751" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A751" s="8"/>
+    </row>
+    <row r="752" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A752" s="8"/>
+    </row>
+    <row r="753" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A753" s="8"/>
+    </row>
+    <row r="754" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A754" s="8"/>
+    </row>
+    <row r="755" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A755" s="8"/>
+    </row>
+    <row r="756" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A756" s="8"/>
+    </row>
+    <row r="757" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A757" s="8"/>
+    </row>
+    <row r="758" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A758" s="8"/>
+    </row>
+    <row r="759" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A759" s="8"/>
+    </row>
+    <row r="760" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A760" s="8"/>
+    </row>
+    <row r="761" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A761" s="8"/>
+    </row>
+    <row r="762" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A762" s="8"/>
+    </row>
+    <row r="763" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A763" s="8"/>
+    </row>
+    <row r="764" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A764" s="8"/>
+    </row>
+    <row r="765" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A765" s="8"/>
+    </row>
+    <row r="766" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A766" s="8"/>
+    </row>
+    <row r="767" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A767" s="8"/>
+    </row>
+    <row r="768" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A768" s="8"/>
+    </row>
+    <row r="769" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A769" s="8"/>
+    </row>
+    <row r="770" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A770" s="8"/>
+    </row>
+    <row r="771" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A771" s="8"/>
+    </row>
+    <row r="772" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A772" s="8"/>
+    </row>
+    <row r="773" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A773" s="8"/>
+    </row>
+    <row r="774" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A774" s="8"/>
+    </row>
+    <row r="775" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A775" s="8"/>
+    </row>
+    <row r="776" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A776" s="8"/>
+    </row>
+    <row r="777" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A777" s="8"/>
+    </row>
+    <row r="778" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A778" s="8"/>
+    </row>
+    <row r="779" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A779" s="8"/>
+    </row>
+    <row r="780" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A780" s="8"/>
+    </row>
+    <row r="781" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A781" s="8"/>
+    </row>
+    <row r="782" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A782" s="8"/>
+    </row>
+    <row r="783" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A783" s="8"/>
+    </row>
+    <row r="784" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A784" s="8"/>
+    </row>
+    <row r="785" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A785" s="8"/>
+    </row>
+    <row r="786" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A786" s="8"/>
+    </row>
+    <row r="787" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A787" s="8"/>
+    </row>
+    <row r="788" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A788" s="8"/>
+    </row>
+    <row r="789" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A789" s="8"/>
+    </row>
+    <row r="790" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A790" s="8"/>
+    </row>
+    <row r="791" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A791" s="8"/>
+    </row>
+    <row r="792" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A792" s="8"/>
+    </row>
+    <row r="793" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A793" s="8"/>
+    </row>
+    <row r="794" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A794" s="8"/>
+    </row>
+    <row r="795" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A795" s="8"/>
+    </row>
+    <row r="796" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A796" s="8"/>
+    </row>
+    <row r="797" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A797" s="8"/>
+    </row>
+    <row r="798" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A798" s="8"/>
+    </row>
+    <row r="799" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A799" s="8"/>
+    </row>
+    <row r="800" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A800" s="8"/>
+    </row>
+    <row r="801" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A801" s="8"/>
+    </row>
+    <row r="802" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A802" s="8"/>
+    </row>
+    <row r="803" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A803" s="8"/>
+    </row>
+    <row r="804" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A804" s="8"/>
+    </row>
+    <row r="805" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A805" s="8"/>
+    </row>
+    <row r="806" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A806" s="8"/>
+    </row>
+    <row r="807" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A807" s="8"/>
+    </row>
+    <row r="808" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A808" s="8"/>
+    </row>
+    <row r="809" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A809" s="8"/>
+    </row>
+    <row r="810" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A810" s="8"/>
+    </row>
+    <row r="811" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A811" s="8"/>
+    </row>
+    <row r="812" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A812" s="8"/>
+    </row>
+    <row r="813" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A813" s="8"/>
+    </row>
+    <row r="814" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A814" s="8"/>
+    </row>
+    <row r="815" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A815" s="8"/>
+    </row>
+    <row r="816" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A816" s="8"/>
+    </row>
+    <row r="817" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A817" s="8"/>
+    </row>
+    <row r="818" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A818" s="8"/>
+    </row>
+    <row r="819" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A819" s="8"/>
+    </row>
+    <row r="820" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A820" s="8"/>
+    </row>
+    <row r="821" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A821" s="8"/>
+    </row>
+    <row r="822" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A822" s="8"/>
+    </row>
+    <row r="823" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A823" s="8"/>
+    </row>
+    <row r="824" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A824" s="8"/>
+    </row>
+    <row r="825" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A825" s="8"/>
+    </row>
+    <row r="826" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A826" s="8"/>
+    </row>
+    <row r="827" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A827" s="8"/>
+    </row>
+    <row r="828" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A828" s="8"/>
+    </row>
+    <row r="829" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A829" s="8"/>
+    </row>
+    <row r="830" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A830" s="8"/>
+    </row>
+    <row r="831" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A831" s="8"/>
+    </row>
+    <row r="832" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A832" s="8"/>
+    </row>
+    <row r="833" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A833" s="8"/>
+    </row>
+    <row r="834" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A834" s="8"/>
+    </row>
+    <row r="835" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A835" s="8"/>
+    </row>
+    <row r="836" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A836" s="8"/>
+    </row>
+    <row r="837" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A837" s="8"/>
+    </row>
+    <row r="838" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A838" s="8"/>
+    </row>
+    <row r="839" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A839" s="8"/>
+    </row>
+    <row r="840" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A840" s="8"/>
+    </row>
+    <row r="841" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A841" s="8"/>
+    </row>
+    <row r="842" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A842" s="8"/>
+    </row>
+    <row r="843" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A843" s="8"/>
+    </row>
+    <row r="844" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A844" s="8"/>
+    </row>
+    <row r="845" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A845" s="8"/>
+    </row>
+    <row r="846" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A846" s="8"/>
+    </row>
+    <row r="847" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A847" s="8"/>
+    </row>
+    <row r="848" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A848" s="8"/>
+    </row>
+    <row r="849" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A849" s="8"/>
+    </row>
+    <row r="850" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A850" s="8"/>
+    </row>
+    <row r="851" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A851" s="8"/>
+    </row>
+    <row r="852" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A852" s="8"/>
+    </row>
+    <row r="853" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A853" s="8"/>
+    </row>
+    <row r="854" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A854" s="8"/>
+    </row>
+    <row r="855" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A855" s="8"/>
+    </row>
+    <row r="856" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A856" s="8"/>
+    </row>
+    <row r="857" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A857" s="8"/>
+    </row>
+    <row r="858" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A858" s="8"/>
+    </row>
+    <row r="859" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A859" s="8"/>
+    </row>
+    <row r="860" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A860" s="8"/>
+    </row>
+    <row r="861" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A861" s="8"/>
+    </row>
+    <row r="862" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A862" s="8"/>
+    </row>
+    <row r="863" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A863" s="8"/>
+    </row>
+    <row r="864" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A864" s="8"/>
+    </row>
+    <row r="865" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A865" s="8"/>
+    </row>
+    <row r="866" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A866" s="8"/>
+    </row>
+    <row r="867" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A867" s="8"/>
+    </row>
+    <row r="868" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A868" s="8"/>
+    </row>
+    <row r="869" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A869" s="8"/>
+    </row>
+    <row r="870" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A870" s="8"/>
+    </row>
+    <row r="871" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A871" s="8"/>
+    </row>
+    <row r="872" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A872" s="8"/>
+    </row>
+    <row r="873" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A873" s="8"/>
+    </row>
+    <row r="874" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A874" s="8"/>
+    </row>
+    <row r="875" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A875" s="8"/>
+    </row>
+    <row r="876" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A876" s="8"/>
+    </row>
+    <row r="877" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A877" s="8"/>
+    </row>
+    <row r="878" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A878" s="8"/>
+    </row>
+    <row r="879" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A879" s="8"/>
+    </row>
+    <row r="880" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A880" s="8"/>
+    </row>
+    <row r="881" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A881" s="8"/>
+    </row>
+    <row r="882" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A882" s="8"/>
+    </row>
+    <row r="883" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A883" s="8"/>
+    </row>
+    <row r="884" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A884" s="8"/>
+    </row>
+    <row r="885" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A885" s="8"/>
+    </row>
+    <row r="886" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A886" s="8"/>
+    </row>
+    <row r="887" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A887" s="8"/>
+    </row>
+    <row r="888" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A888" s="8"/>
+    </row>
+    <row r="889" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A889" s="8"/>
+    </row>
+    <row r="890" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A890" s="8"/>
+    </row>
+    <row r="891" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A891" s="8"/>
+    </row>
+    <row r="892" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A892" s="8"/>
+    </row>
+    <row r="893" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A893" s="8"/>
+    </row>
+    <row r="894" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A894" s="8"/>
+    </row>
+    <row r="895" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A895" s="8"/>
+    </row>
+    <row r="896" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A896" s="8"/>
+    </row>
+    <row r="897" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A897" s="8"/>
+    </row>
+    <row r="898" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A898" s="8"/>
+    </row>
+    <row r="899" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A899" s="8"/>
+    </row>
+    <row r="900" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A900" s="8"/>
+    </row>
+    <row r="901" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A901" s="8"/>
+    </row>
+    <row r="902" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A902" s="8"/>
+    </row>
+    <row r="903" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A903" s="8"/>
+    </row>
+    <row r="904" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A904" s="8"/>
+    </row>
+    <row r="905" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A905" s="8"/>
+    </row>
+    <row r="906" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A906" s="8"/>
+    </row>
+    <row r="907" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A907" s="8"/>
+    </row>
+    <row r="908" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A908" s="8"/>
+    </row>
+    <row r="909" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A909" s="8"/>
+    </row>
+    <row r="910" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A910" s="8"/>
+    </row>
+    <row r="911" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A911" s="8"/>
+    </row>
+    <row r="912" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A912" s="8"/>
+    </row>
+    <row r="913" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A913" s="8"/>
+    </row>
+    <row r="914" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A914" s="8"/>
+    </row>
+    <row r="915" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A915" s="8"/>
+    </row>
+    <row r="916" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A916" s="8"/>
+    </row>
+    <row r="917" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A917" s="8"/>
+    </row>
+    <row r="918" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A918" s="8"/>
+    </row>
+    <row r="919" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A919" s="8"/>
+    </row>
+    <row r="920" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A920" s="8"/>
+    </row>
+    <row r="921" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A921" s="8"/>
+    </row>
+    <row r="922" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A922" s="8"/>
+    </row>
+    <row r="923" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A923" s="8"/>
+    </row>
+    <row r="924" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A924" s="8"/>
+    </row>
+    <row r="925" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A925" s="8"/>
+    </row>
+    <row r="926" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A926" s="8"/>
+    </row>
+    <row r="927" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A927" s="8"/>
+    </row>
+    <row r="928" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A928" s="8"/>
+    </row>
+    <row r="929" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A929" s="8"/>
+    </row>
+    <row r="930" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A930" s="8"/>
+    </row>
+    <row r="931" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A931" s="8"/>
+    </row>
+    <row r="932" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A932" s="8"/>
+    </row>
+    <row r="933" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A933" s="8"/>
+    </row>
+    <row r="934" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A934" s="8"/>
+    </row>
+    <row r="935" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A935" s="8"/>
+    </row>
+    <row r="936" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A936" s="8"/>
+    </row>
+    <row r="937" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A937" s="8"/>
+    </row>
+    <row r="938" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A938" s="8"/>
+    </row>
+    <row r="939" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A939" s="8"/>
+    </row>
+    <row r="940" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A940" s="8"/>
+    </row>
+    <row r="941" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A941" s="8"/>
+    </row>
+    <row r="942" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A942" s="8"/>
+    </row>
+    <row r="943" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A943" s="8"/>
+    </row>
+    <row r="944" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A944" s="8"/>
+    </row>
+    <row r="945" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A945" s="8"/>
+    </row>
+    <row r="946" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A946" s="8"/>
+    </row>
+    <row r="947" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A947" s="8"/>
+    </row>
+    <row r="948" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A948" s="8"/>
+    </row>
+    <row r="949" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A949" s="8"/>
+    </row>
+    <row r="950" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A950" s="8"/>
+    </row>
+    <row r="951" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A951" s="8"/>
+    </row>
+    <row r="952" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A952" s="8"/>
+    </row>
+    <row r="953" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A953" s="8"/>
+    </row>
+    <row r="954" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A954" s="8"/>
+    </row>
+    <row r="955" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A955" s="8"/>
+    </row>
+    <row r="956" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A956" s="8"/>
+    </row>
+    <row r="957" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A957" s="8"/>
+    </row>
+    <row r="958" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A958" s="8"/>
+    </row>
+    <row r="959" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A959" s="8"/>
+    </row>
+    <row r="960" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A960" s="8"/>
+    </row>
+    <row r="961" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A961" s="8"/>
+    </row>
+    <row r="962" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A962" s="8"/>
+    </row>
+    <row r="963" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A963" s="8"/>
+    </row>
+    <row r="964" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A964" s="8"/>
+    </row>
+    <row r="965" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A965" s="8"/>
+    </row>
+    <row r="966" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A966" s="8"/>
+    </row>
+    <row r="967" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A967" s="8"/>
+    </row>
+    <row r="968" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A968" s="8"/>
+    </row>
+    <row r="969" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A969" s="8"/>
+    </row>
+    <row r="970" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A970" s="8"/>
+    </row>
+    <row r="971" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A971" s="8"/>
+    </row>
+    <row r="972" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A972" s="8"/>
+    </row>
+    <row r="973" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A973" s="8"/>
+    </row>
+    <row r="974" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A974" s="8"/>
+    </row>
+    <row r="975" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A975" s="8"/>
+    </row>
+    <row r="976" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A976" s="8"/>
+    </row>
+    <row r="977" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A977" s="8"/>
+    </row>
+    <row r="978" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A978" s="8"/>
+    </row>
+    <row r="979" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A979" s="8"/>
+    </row>
+    <row r="980" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A980" s="8"/>
+    </row>
+    <row r="981" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A981" s="8"/>
+    </row>
+    <row r="982" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A982" s="8"/>
+    </row>
+    <row r="983" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A983" s="8"/>
+    </row>
+    <row r="984" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A984" s="8"/>
+    </row>
+    <row r="985" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A985" s="8"/>
+    </row>
+    <row r="986" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A986" s="8"/>
+    </row>
+    <row r="987" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A987" s="8"/>
+    </row>
+    <row r="988" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A988" s="8"/>
+    </row>
+    <row r="989" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A989" s="8"/>
+    </row>
+    <row r="990" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A990" s="8"/>
+    </row>
+    <row r="991" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A991" s="8"/>
+    </row>
+    <row r="992" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A992" s="8"/>
+    </row>
+    <row r="993" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A993" s="8"/>
+    </row>
+    <row r="994" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A994" s="8"/>
+    </row>
+    <row r="995" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A995" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B25:B41"/>
+    <mergeCell ref="B43:B53"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>